--- a/iselUssSyncV2/OutputWSLorientation/20220524_1338_D50L474W30Q17.0U0.36H60.3G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1338_D50L474W30Q17.0U0.36H60.3G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.49721499461400281</v>
+        <v>0.28428187393352827</v>
       </c>
       <c r="P2" s="0">
         <v>220.76374666666663</v>
@@ -356,10 +356,10 @@
         <v>2.1656923548</v>
       </c>
       <c r="R2" s="0">
-        <v>1.4367752155468194</v>
+        <v>2.5129501616648438</v>
       </c>
       <c r="S2" s="0">
-        <v>0.36320637459541955</v>
+        <v>1.2872648418094073</v>
       </c>
       <c r="T2" s="0">
         <v>0.036140283158818697</v>
@@ -383,16 +383,16 @@
         <v>170000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.5073285865219797</v>
+        <v>0.86181269642260494</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.9627046943005713</v>
+        <v>1.6823984346188279</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.8762047982006944</v>
+        <v>1.9381023991003472</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.4338333270672639</v>
+        <v>1.7169166635336319</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.8389094925012657</v>
+        <v>3.6205008337191753</v>
       </c>
     </row>
   </sheetData>
